--- a/stats/allHeuristics50constant.xlsx
+++ b/stats/allHeuristics50constant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="57" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="104">
   <si>
     <t>board</t>
   </si>
@@ -321,30 +321,6 @@
   </si>
   <si>
     <t>[[0.12244897959183673, -2e-05, 0.04081632653061224, -1e-05, -1e-05, 0.02040816326530612], [0.02040816326530612, -2e-05, -1e-05, -2e-05, 0.04081632653061224, 0.02040816326530612], [0.12244897959183673, -1e-05, 0.08163265306122448, 0.02040816326530612, 0.02040816326530612, 0.02040816326530612], [-2e-05, -1e-05, 0.061224489795918366, -2e-05, 0.02040816326530612, 0.02040816326530612], [0.02040816326530612, -1e-05, 0.08163265306122448, 0.02040816326530612, 0.04081632653061224, 0.02040816326530612], [0.02040816326530612, -2e-05, 0.061224489795918366, 0.08163265306122448, -2e-05, 0.02040816326530612]]</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>pruned</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>boardSize</t>
-  </si>
-  <si>
-    <t>boardType</t>
-  </si>
-  <si>
-    <t>condition</t>
   </si>
   <si>
     <t>Average of correct</t>
@@ -919,7 +895,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Amir, Ofra" refreshedDate="43128.749336342589" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="90">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P91" sheet="allHeuristics50constant"/>
+    <worksheetSource ref="A1:M91" sheet="allHeuristics50constant"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="board" numFmtId="0">
@@ -2615,7 +2591,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -2987,7 +2963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2999,10 +2975,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,7 +3055,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1">
         <v>0.57777777777777772</v>
@@ -3087,10 +3063,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,4561 +3151,3742 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>50</v>
-      </c>
-      <c r="N2">
         <v>56</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3">
         <v>56</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
-      <c r="N4">
         <v>66</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>50</v>
-      </c>
-      <c r="N5">
         <v>66</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <v>10</v>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>50</v>
-      </c>
-      <c r="N6">
         <v>36</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>50</v>
-      </c>
-      <c r="N7">
         <v>27</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>50</v>
-      </c>
-      <c r="N8">
         <v>24</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>50</v>
-      </c>
-      <c r="N9">
         <v>33</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
-        <v>6</v>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>50</v>
-      </c>
-      <c r="N10">
         <v>16</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>6</v>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>50</v>
-      </c>
-      <c r="N11">
         <v>17</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>10</v>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>50</v>
-      </c>
-      <c r="N13">
         <v>20</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>10</v>
+      <c r="B14" t="s">
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>50</v>
-      </c>
-      <c r="N14">
         <v>25</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>10</v>
+      <c r="B15" t="s">
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>50</v>
-      </c>
-      <c r="N15">
         <v>66</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
-        <v>10</v>
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-      <c r="N16">
         <v>36</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>10</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>50</v>
-      </c>
-      <c r="N17">
         <v>53</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
-        <v>6</v>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>50</v>
-      </c>
-      <c r="N18">
         <v>24</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
-        <v>6</v>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>50</v>
-      </c>
-      <c r="N19">
         <v>12</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>6</v>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>50</v>
-      </c>
-      <c r="N20">
         <v>16</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21">
-        <v>6</v>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
-      </c>
-      <c r="N21">
-        <v>15</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>10</v>
+      <c r="B22" t="s">
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>50</v>
-      </c>
-      <c r="N22">
-        <v>50</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23">
-        <v>10</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>50</v>
-      </c>
-      <c r="N23">
         <v>20</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
-        <v>10</v>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
         <v>36</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>50</v>
-      </c>
-      <c r="N24">
         <v>44</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>10</v>
+      <c r="B25" t="s">
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>50</v>
-      </c>
-      <c r="N25">
         <v>24</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>10</v>
+      <c r="B26" t="s">
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>50</v>
-      </c>
-      <c r="N26">
         <v>43</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>10</v>
+      <c r="B27" t="s">
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" t="s">
         <v>36</v>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>50</v>
-      </c>
-      <c r="N27">
         <v>53</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>6</v>
+      <c r="B28" t="s">
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>50</v>
-      </c>
-      <c r="N28">
         <v>24</v>
       </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>6</v>
+      <c r="B29" t="s">
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>15</v>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>50</v>
-      </c>
-      <c r="N29">
         <v>12</v>
       </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
-        <v>6</v>
+      <c r="B30" t="s">
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
         <v>36</v>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>50</v>
-      </c>
-      <c r="N30">
         <v>4</v>
       </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>6</v>
+      <c r="B31" t="s">
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
         <v>36</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>50</v>
-      </c>
-      <c r="N31">
         <v>3</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
-        <v>10</v>
+      <c r="B32" t="s">
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>50</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="B33">
-        <v>10</v>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
         <v>36</v>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>50</v>
-      </c>
-      <c r="N33">
         <v>20</v>
       </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B34">
-        <v>10</v>
+      <c r="B34" t="s">
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" t="s">
         <v>36</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>50</v>
-      </c>
-      <c r="N34">
         <v>25</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B35">
-        <v>10</v>
+      <c r="B35" t="s">
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" t="s">
         <v>36</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>50</v>
-      </c>
-      <c r="N35">
         <v>24</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="B36">
-        <v>10</v>
+      <c r="B36" t="s">
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>50</v>
-      </c>
-      <c r="N36">
         <v>42</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B37">
-        <v>10</v>
+      <c r="B37" t="s">
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
         <v>36</v>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>50</v>
-      </c>
-      <c r="N37">
         <v>53</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B38">
-        <v>6</v>
+      <c r="B38" t="s">
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
         <v>36</v>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38" t="b">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>50</v>
-      </c>
-      <c r="N38">
         <v>24</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
-      <c r="B39">
-        <v>6</v>
+      <c r="B39" t="s">
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" t="s">
         <v>36</v>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>50</v>
-      </c>
-      <c r="N39">
         <v>12</v>
       </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40">
-        <v>6</v>
+      <c r="B40" t="s">
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" t="s">
         <v>36</v>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>50</v>
-      </c>
-      <c r="N40">
         <v>4</v>
       </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B41">
-        <v>6</v>
+      <c r="B41" t="s">
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>50</v>
-      </c>
-      <c r="N41">
         <v>3</v>
       </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42">
-        <v>10</v>
+      <c r="B42" t="s">
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" t="s">
         <v>36</v>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>50</v>
-      </c>
-      <c r="N42">
-        <v>50</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
-      <c r="B43">
-        <v>10</v>
+      <c r="B43" t="s">
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="s">
         <v>36</v>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>15</v>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>50</v>
-      </c>
-      <c r="N43">
         <v>20</v>
       </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="B44">
-        <v>10</v>
+      <c r="B44" t="s">
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
         <v>36</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>15</v>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>50</v>
-      </c>
-      <c r="N44">
         <v>25</v>
       </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B45">
-        <v>10</v>
+      <c r="B45" t="s">
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" t="s">
         <v>36</v>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>50</v>
-      </c>
-      <c r="N45">
         <v>24</v>
       </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
-      <c r="B46">
-        <v>10</v>
+      <c r="B46" t="s">
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" t="s">
         <v>36</v>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46" t="s">
-        <v>15</v>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>50</v>
-      </c>
-      <c r="N46">
         <v>74</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47">
-        <v>10</v>
+      <c r="B47" t="s">
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" t="s">
         <v>36</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>15</v>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
       </c>
       <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>50</v>
-      </c>
-      <c r="N47">
         <v>53</v>
       </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
-      <c r="B48">
-        <v>6</v>
+      <c r="B48" t="s">
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="J48" t="s">
-        <v>15</v>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
       </c>
       <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>50</v>
-      </c>
-      <c r="N48">
         <v>24</v>
       </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="B49">
-        <v>6</v>
+      <c r="B49" t="s">
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
-      <c r="J49" t="s">
-        <v>15</v>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>2</v>
-      </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>50</v>
-      </c>
-      <c r="N49">
         <v>12</v>
       </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
-      <c r="B50">
-        <v>6</v>
+      <c r="B50" t="s">
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" t="s">
         <v>36</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="J50" t="s">
-        <v>15</v>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>50</v>
-      </c>
-      <c r="N50">
         <v>4</v>
       </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51">
-        <v>6</v>
+      <c r="B51" t="s">
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" t="s">
         <v>36</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51" t="s">
-        <v>15</v>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>2</v>
-      </c>
-      <c r="L51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>50</v>
-      </c>
-      <c r="N51">
         <v>3</v>
       </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
-      <c r="B52">
-        <v>10</v>
+      <c r="B52" t="s">
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" t="s">
         <v>66</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>15</v>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>50</v>
-      </c>
-      <c r="N52">
         <v>56</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
-      <c r="B53">
-        <v>10</v>
+      <c r="B53" t="s">
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" t="s">
         <v>66</v>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>15</v>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>50</v>
-      </c>
-      <c r="N53">
         <v>56</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="s">
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
-      <c r="B54">
-        <v>10</v>
+      <c r="B54" t="s">
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" t="s">
         <v>66</v>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>15</v>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2</v>
-      </c>
-      <c r="L54" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>50</v>
-      </c>
-      <c r="N54">
         <v>66</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B55">
-        <v>10</v>
+      <c r="B55" t="s">
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" t="s">
         <v>66</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>15</v>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55" t="b">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>50</v>
-      </c>
-      <c r="N55">
         <v>66</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
-      <c r="B56">
-        <v>10</v>
+      <c r="B56" t="s">
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" t="s">
         <v>66</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>15</v>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>2</v>
-      </c>
-      <c r="L56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>50</v>
-      </c>
-      <c r="N56">
         <v>36</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57">
-        <v>10</v>
+      <c r="B57" t="s">
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" t="s">
         <v>66</v>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>15</v>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>2</v>
-      </c>
-      <c r="L57" t="b">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>50</v>
-      </c>
-      <c r="N57">
         <v>27</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
-      <c r="B58">
-        <v>6</v>
+      <c r="B58" t="s">
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" t="s">
         <v>66</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>15</v>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58" t="b">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>50</v>
-      </c>
-      <c r="N58">
         <v>24</v>
       </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58" t="s">
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
-      <c r="B59">
-        <v>6</v>
+      <c r="B59" t="s">
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s">
         <v>66</v>
       </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>15</v>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59" t="b">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>49</v>
-      </c>
-      <c r="N59">
         <v>12</v>
       </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59" t="s">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="B60">
-        <v>6</v>
+      <c r="B60" t="s">
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" t="s">
         <v>66</v>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>15</v>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
       </c>
       <c r="K60">
-        <v>2</v>
-      </c>
-      <c r="L60" t="b">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>50</v>
-      </c>
-      <c r="N60">
         <v>17</v>
       </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
-      <c r="B61">
-        <v>6</v>
+      <c r="B61" t="s">
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" t="s">
         <v>66</v>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>15</v>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61" t="b">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>50</v>
-      </c>
-      <c r="N61">
         <v>17</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="B62">
-        <v>10</v>
+      <c r="B62" t="s">
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" t="s">
         <v>66</v>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>15</v>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>2</v>
-      </c>
-      <c r="L62" t="b">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>50</v>
-      </c>
-      <c r="N62">
         <v>65</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
-      <c r="B63">
-        <v>10</v>
+      <c r="B63" t="s">
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" t="s">
         <v>66</v>
       </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>15</v>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>50</v>
       </c>
       <c r="K63">
-        <v>2</v>
-      </c>
-      <c r="L63" t="b">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>50</v>
-      </c>
-      <c r="N63">
         <v>65</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
-      <c r="B64">
-        <v>10</v>
+      <c r="B64" t="s">
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" t="s">
         <v>66</v>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>15</v>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>2</v>
-      </c>
-      <c r="L64" t="b">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>50</v>
-      </c>
-      <c r="N64">
         <v>44</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
-      <c r="B65">
-        <v>10</v>
+      <c r="B65" t="s">
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" t="s">
         <v>66</v>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>15</v>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
       </c>
       <c r="K65">
-        <v>2</v>
-      </c>
-      <c r="L65" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>50</v>
-      </c>
-      <c r="N65">
         <v>47</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
-      <c r="B66">
-        <v>10</v>
+      <c r="B66" t="s">
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" t="s">
         <v>66</v>
       </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>15</v>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>2</v>
-      </c>
-      <c r="L66" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>50</v>
-      </c>
-      <c r="N66">
         <v>43</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
-      <c r="B67">
-        <v>10</v>
+      <c r="B67" t="s">
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s">
         <v>66</v>
       </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>15</v>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>2</v>
-      </c>
-      <c r="L67" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>50</v>
-      </c>
-      <c r="N67">
         <v>53</v>
       </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>27</v>
       </c>
-      <c r="B68">
-        <v>6</v>
+      <c r="B68" t="s">
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s">
         <v>66</v>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>15</v>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>50</v>
-      </c>
-      <c r="N68">
         <v>24</v>
       </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>29</v>
       </c>
-      <c r="B69">
-        <v>6</v>
+      <c r="B69" t="s">
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
         <v>66</v>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>15</v>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69" t="b">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>49</v>
-      </c>
-      <c r="N69">
         <v>12</v>
       </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
-      <c r="B70">
-        <v>6</v>
+      <c r="B70" t="s">
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" t="s">
         <v>66</v>
       </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>15</v>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>2</v>
-      </c>
-      <c r="L70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>50</v>
-      </c>
-      <c r="N70">
-        <v>15</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
-      <c r="B71">
-        <v>6</v>
+      <c r="B71" t="s">
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s">
         <v>66</v>
       </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>15</v>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71" t="b">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>50</v>
-      </c>
-      <c r="N71">
-        <v>15</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
-      <c r="B72">
-        <v>10</v>
+      <c r="B72" t="s">
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" t="s">
-        <v>87</v>
-      </c>
-      <c r="F72" t="s">
         <v>66</v>
       </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72" t="s">
-        <v>15</v>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>50</v>
       </c>
       <c r="K72">
-        <v>2</v>
-      </c>
-      <c r="L72" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>50</v>
-      </c>
-      <c r="N72">
         <v>56</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
-      <c r="B73">
-        <v>10</v>
+      <c r="B73" t="s">
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73" t="s">
         <v>66</v>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>15</v>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>50</v>
       </c>
       <c r="K73">
-        <v>2</v>
-      </c>
-      <c r="L73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>50</v>
-      </c>
-      <c r="N73">
         <v>20</v>
       </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
-      <c r="B74">
-        <v>10</v>
+      <c r="B74" t="s">
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" t="s">
-        <v>87</v>
-      </c>
-      <c r="F74" t="s">
         <v>66</v>
       </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>15</v>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>2</v>
-      </c>
-      <c r="L74" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>50</v>
-      </c>
-      <c r="N74">
         <v>25</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>21</v>
       </c>
-      <c r="B75">
-        <v>10</v>
+      <c r="B75" t="s">
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" t="s">
         <v>66</v>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75" t="s">
-        <v>15</v>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>50</v>
       </c>
       <c r="K75">
-        <v>2</v>
-      </c>
-      <c r="L75" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>50</v>
-      </c>
-      <c r="N75">
         <v>28</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
-      <c r="B76">
-        <v>10</v>
+      <c r="B76" t="s">
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" t="s">
-        <v>87</v>
-      </c>
-      <c r="F76" t="s">
         <v>66</v>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76" t="s">
-        <v>15</v>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>2</v>
-      </c>
-      <c r="L76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>50</v>
-      </c>
-      <c r="N76">
         <v>42</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>25</v>
       </c>
-      <c r="B77">
-        <v>10</v>
+      <c r="B77" t="s">
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" t="s">
         <v>66</v>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="J77" t="s">
-        <v>15</v>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>2</v>
-      </c>
-      <c r="L77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>50</v>
-      </c>
-      <c r="N77">
         <v>53</v>
       </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
-      <c r="B78">
-        <v>6</v>
+      <c r="B78" t="s">
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" t="s">
         <v>66</v>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78" t="s">
-        <v>15</v>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>2</v>
-      </c>
-      <c r="L78" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>50</v>
-      </c>
-      <c r="N78">
         <v>24</v>
       </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78" t="s">
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>29</v>
       </c>
-      <c r="B79">
-        <v>6</v>
+      <c r="B79" t="s">
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" t="s">
         <v>66</v>
       </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79" t="s">
-        <v>15</v>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2</v>
-      </c>
-      <c r="L79" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>49</v>
-      </c>
-      <c r="N79">
         <v>12</v>
       </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79" t="s">
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
-      <c r="B80">
-        <v>6</v>
+      <c r="B80" t="s">
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" t="s">
         <v>66</v>
       </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>15</v>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>50</v>
       </c>
       <c r="K80">
-        <v>2</v>
-      </c>
-      <c r="L80" t="b">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>50</v>
-      </c>
-      <c r="N80">
         <v>4</v>
       </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="s">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
-      <c r="B81">
-        <v>6</v>
+      <c r="B81" t="s">
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" t="s">
         <v>66</v>
       </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>15</v>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>50</v>
       </c>
       <c r="K81">
-        <v>2</v>
-      </c>
-      <c r="L81" t="b">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>50</v>
-      </c>
-      <c r="N81">
         <v>16</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="s">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
-      <c r="B82">
-        <v>10</v>
+      <c r="B82" t="s">
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" t="s">
-        <v>96</v>
-      </c>
-      <c r="F82" t="s">
         <v>66</v>
       </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" t="s">
-        <v>15</v>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>50</v>
       </c>
       <c r="K82">
-        <v>2</v>
-      </c>
-      <c r="L82" t="b">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>50</v>
-      </c>
-      <c r="N82">
-        <v>50</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
-      <c r="B83">
-        <v>10</v>
+      <c r="B83" t="s">
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" t="s">
-        <v>96</v>
-      </c>
-      <c r="F83" t="s">
         <v>66</v>
       </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83" t="s">
-        <v>15</v>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>50</v>
-      </c>
-      <c r="N83">
         <v>20</v>
       </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83" t="s">
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
-      <c r="B84">
-        <v>10</v>
+      <c r="B84" t="s">
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" t="s">
-        <v>96</v>
-      </c>
-      <c r="F84" t="s">
         <v>66</v>
       </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>15</v>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>50</v>
       </c>
       <c r="K84">
-        <v>2</v>
-      </c>
-      <c r="L84" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>50</v>
-      </c>
-      <c r="N84">
         <v>44</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
-      <c r="B85">
-        <v>10</v>
+      <c r="B85" t="s">
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E85" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" t="s">
         <v>66</v>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>15</v>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>2</v>
-      </c>
-      <c r="L85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>50</v>
-      </c>
-      <c r="N85">
         <v>24</v>
       </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85" t="s">
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>23</v>
       </c>
-      <c r="B86">
-        <v>10</v>
+      <c r="B86" t="s">
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" t="s">
-        <v>102</v>
-      </c>
-      <c r="E86" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" t="s">
         <v>66</v>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>15</v>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86" t="b">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>50</v>
-      </c>
-      <c r="N86">
         <v>77</v>
       </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="s">
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>25</v>
       </c>
-      <c r="B87">
-        <v>10</v>
+      <c r="B87" t="s">
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
         <v>66</v>
       </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>15</v>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87" t="b">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>50</v>
-      </c>
-      <c r="N87">
         <v>53</v>
       </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87" t="s">
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
-      <c r="B88">
-        <v>6</v>
+      <c r="B88" t="s">
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
-      </c>
-      <c r="D88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" t="s">
-        <v>96</v>
-      </c>
-      <c r="F88" t="s">
         <v>66</v>
       </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>15</v>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88" t="b">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>50</v>
-      </c>
-      <c r="N88">
         <v>24</v>
       </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88" t="s">
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>29</v>
       </c>
-      <c r="B89">
-        <v>6</v>
+      <c r="B89" t="s">
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" t="s">
-        <v>96</v>
-      </c>
-      <c r="F89" t="s">
         <v>66</v>
       </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>15</v>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>49</v>
       </c>
       <c r="K89">
-        <v>2</v>
-      </c>
-      <c r="L89" t="b">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>49</v>
-      </c>
-      <c r="N89">
         <v>12</v>
       </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89" t="s">
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="B90">
-        <v>6</v>
+      <c r="B90" t="s">
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" t="s">
-        <v>102</v>
-      </c>
-      <c r="E90" t="s">
-        <v>96</v>
-      </c>
-      <c r="F90" t="s">
         <v>66</v>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="b">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>15</v>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>50</v>
       </c>
       <c r="K90">
-        <v>2</v>
-      </c>
-      <c r="L90" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>50</v>
-      </c>
-      <c r="N90">
-        <v>15</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
-      <c r="B91">
-        <v>6</v>
+      <c r="B91" t="s">
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
-        <v>103</v>
-      </c>
-      <c r="E91" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" t="s">
         <v>66</v>
       </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>2</v>
-      </c>
-      <c r="J91" t="s">
-        <v>15</v>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>2</v>
-      </c>
-      <c r="L91" t="b">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>50</v>
-      </c>
-      <c r="N91">
-        <v>15</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
         <v>100</v>
       </c>
     </row>
